--- a/Enunciados/1617 DAW2 - Projectes (enunciat).xlsx
+++ b/Enunciados/1617 DAW2 - Projectes (enunciat).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9199.joan23\Documents\GitHub\Proyecto\Enunciados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PR01" sheetId="1" r:id="rId3"/>
+    <sheet name="PR01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -65,22 +73,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -89,7 +99,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -140,67 +150,68 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -216,17 +227,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="2" name="image00.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -252,17 +264,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image01.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="3" name="image01.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -288,17 +301,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image02.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="4" name="image02.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -324,17 +338,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image03.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="5" name="image03.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -360,17 +375,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image04.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="6" name="image04.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -396,17 +412,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image05.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="7" name="image05.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -432,17 +449,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image06.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="8" name="image06.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -468,17 +486,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image07.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="9" name="image07.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -504,17 +523,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image08.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="10" name="image08.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -540,17 +560,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="11" name="image11.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -576,17 +597,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="12" name="image10.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -612,17 +634,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image09.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="13" name="image09.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -648,17 +671,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="14" name="image12.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -684,17 +708,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="15" name="image13.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -720,17 +745,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="16" name="image14.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -756,17 +782,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="17" name="image15.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -792,17 +819,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="18" name="image16.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="685800" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -828,17 +856,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="19" name="image20.png" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="2676525" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -864,17 +893,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="20" name="image17.jpg" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="1609725" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -900,17 +930,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.jpg" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="21" name="image18.jpg" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="1971675" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -936,17 +967,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.gif" title="Imatge"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
+        <xdr:cNvPr id="22" name="image19.gif" title="Imatge"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="1752600" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -960,26 +992,292 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -987,18 +1285,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>42660.0</v>
+        <v>42660</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>42664.0</v>
+        <v>42664</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1008,56 +1306,77 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="32.25" customHeight="1">
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10">
-        <f>sum(if(isblank(A6), 0, 3),if(isblank(A9), 0, 3),if(isblank(B6), 0, 6),if(isblank(C6), 0, 5),if(isblank(D6), 0, 4),if(isblank(D10), 0, 2))</f>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6">
+        <f>SUM(IF(ISBLANK(A6), 0, 3),IF(ISBLANK(A9), 0, 3),IF(ISBLANK(B6), 0, 6),IF(ISBLANK(C6), 0, 5),IF(ISBLANK(D6), 0, 4),IF(ISBLANK(D10), 0, 2))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" s="12" t="s">
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="C11" s="13"/>
-      <c r="E11" s="10">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12" ht="105.75" customHeight="1"/>
-    <row r="14">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1067,13 +1386,17 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1081,7 +1404,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1089,7 +1412,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1097,7 +1420,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1107,6 +1430,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A9:A12"/>
@@ -1114,8 +1438,8 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>